--- a/Use Case.xlsx
+++ b/Use Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="-80" windowWidth="22700" windowHeight="13740"/>
+    <workbookView xWindow="1600" yWindow="140" windowWidth="22700" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case documents" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="118">
   <si>
     <t>enter "23.4" into systolic bp field</t>
   </si>
@@ -119,6 +119,30 @@
   </si>
   <si>
     <t>Start MMHome Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Visits By Patient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Visits by Nurse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Patient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Visit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Nurse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Credentials</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -887,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="B3:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83:F94"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -912,13 +936,13 @@
     <row r="4" spans="2:6" ht="15" thickBot="1"/>
     <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>31</v>
@@ -926,27 +950,27 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -954,101 +978,101 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3"/>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3"/>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" ht="42">
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2"/>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2"/>
       <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15" thickBot="1">
       <c r="B16" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C16" s="8">
         <v>41051</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F16" s="8">
         <v>41051</v>
@@ -1057,41 +1081,41 @@
     <row r="17" spans="2:6" ht="15" thickBot="1"/>
     <row r="18" spans="2:6">
       <c r="B18" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F20" s="7">
         <v>1</v>
@@ -1099,109 +1123,109 @@
     </row>
     <row r="21" spans="2:6" ht="42">
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" ht="70">
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6" ht="28">
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6" ht="56">
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2"/>
       <c r="E26" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2"/>
       <c r="E27" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1">
       <c r="B29" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C29" s="8">
         <v>41051</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F29" s="8">
         <v>41051</v>
@@ -1210,41 +1234,41 @@
     <row r="30" spans="2:6" ht="15" thickBot="1"/>
     <row r="31" spans="2:6">
       <c r="B31" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
@@ -1252,107 +1276,107 @@
     </row>
     <row r="34" spans="2:6" ht="56">
       <c r="B34" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="2:6" ht="84">
       <c r="B36" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2"/>
       <c r="E37" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="2:6" ht="56">
       <c r="B38" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2"/>
       <c r="E39" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2"/>
       <c r="E40" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15" thickBot="1">
       <c r="B42" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C42" s="8">
         <v>41051</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F42" s="8">
         <v>41051</v>
@@ -1361,41 +1385,41 @@
     <row r="43" spans="2:6" ht="15" thickBot="1"/>
     <row r="44" spans="2:6">
       <c r="B44" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F46" s="7">
         <v>1</v>
@@ -1403,109 +1427,109 @@
     </row>
     <row r="47" spans="2:6" ht="56">
       <c r="B47" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="2:6" ht="84">
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="2:6" ht="70">
       <c r="B50" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="2:6" ht="56">
       <c r="B51" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2"/>
       <c r="E52" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2"/>
       <c r="E53" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="15" thickBot="1">
       <c r="B55" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C55" s="8">
         <v>41051</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F55" s="8">
         <v>41051</v>
@@ -1514,41 +1538,41 @@
     <row r="56" spans="2:6" ht="15" thickBot="1"/>
     <row r="57" spans="2:6">
       <c r="B57" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
@@ -1556,109 +1580,109 @@
     </row>
     <row r="60" spans="2:6" ht="56">
       <c r="B60" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="2:6" ht="98">
       <c r="B62" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="2:6" ht="70">
       <c r="B63" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="2:6" ht="56">
       <c r="B64" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C65" s="2"/>
       <c r="E65" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2"/>
       <c r="E66" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15" thickBot="1">
       <c r="B68" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C68" s="8">
         <v>41051</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F68" s="8">
         <v>41051</v>
@@ -1667,41 +1691,41 @@
     <row r="69" spans="2:6" ht="15" thickBot="1"/>
     <row r="70" spans="2:6">
       <c r="B70" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C72" s="7">
         <v>1</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F72" s="7">
         <v>1</v>
@@ -1709,105 +1733,105 @@
     </row>
     <row r="73" spans="2:6" ht="56">
       <c r="B73" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C75" s="3"/>
       <c r="E75" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C76" s="3"/>
       <c r="E76" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="2:6" ht="42">
       <c r="B77" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="2:6">
       <c r="B78" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2"/>
       <c r="E78" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2"/>
       <c r="E79" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="15" thickBot="1">
       <c r="B81" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C81" s="8">
         <v>41051</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F81" s="8">
         <v>41051</v>
@@ -1816,23 +1840,23 @@
     <row r="82" spans="2:6" ht="15" thickBot="1"/>
     <row r="83" spans="2:6">
       <c r="E83" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="2:6">
       <c r="E84" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="2:6">
       <c r="E85" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F85" s="7">
         <v>1</v>
@@ -1840,66 +1864,65 @@
     </row>
     <row r="86" spans="2:6">
       <c r="E86" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="2:6">
       <c r="E87" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="2:6">
       <c r="E88" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="2:6">
       <c r="E89" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="2:6" ht="42">
       <c r="E90" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="2:6">
       <c r="E91" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="2:6">
       <c r="E92" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="2:6">
       <c r="E93" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="15" thickBot="1">
       <c r="E94" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F94" s="8">
         <v>41051</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="2">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -1932,177 +1955,177 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="C1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="C2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="28">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="28">
       <c r="B6" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="28">
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="28">
       <c r="B8" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="28">
       <c r="B10" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="28">
       <c r="B11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
         <v>75</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="28">
       <c r="B12" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="28">
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="28">
       <c r="B14" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="28">
       <c r="B15" s="9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="28">
       <c r="B16" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="28">
       <c r="B17" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="28">
@@ -2110,10 +2133,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="42">
@@ -2121,32 +2144,32 @@
         <v>1</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="28">
       <c r="B20" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="42">
       <c r="B21" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="28">
@@ -2154,21 +2177,21 @@
         <v>0</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="28">
       <c r="B23" s="9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="42">
@@ -2176,10 +2199,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="28">
@@ -2187,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="28">
@@ -2201,7 +2224,7 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="28">
@@ -2212,7 +2235,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="28">
@@ -2220,10 +2243,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="28">
@@ -2234,7 +2257,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="28">
@@ -2245,7 +2268,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="42">
@@ -2256,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="28">
@@ -2267,7 +2290,7 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="28">
@@ -2278,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="42">
@@ -2286,10 +2309,10 @@
         <v>20</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="28">
@@ -2297,10 +2320,10 @@
         <v>21</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="28">
@@ -2311,7 +2334,7 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="42">
@@ -2319,10 +2342,10 @@
         <v>25</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="28">
@@ -2330,10 +2353,10 @@
         <v>26</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="42">
@@ -2344,11 +2367,10 @@
         <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
